--- a/ManualTesting_Veeva.xlsx
+++ b/ManualTesting_Veeva.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestLeaf\Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8B6808-1D4A-404A-B0B3-E861C5160BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA2EF3E-4F50-4D63-9932-45F85DE7D927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="119">
   <si>
     <t>Test Case</t>
   </si>
@@ -419,6 +419,12 @@
   </si>
   <si>
     <t>Functional Testing</t>
+  </si>
+  <si>
+    <t>There should be minimum utilization of resource.</t>
+  </si>
+  <si>
+    <t>Resource Usage Test</t>
   </si>
 </sst>
 </file>
@@ -556,9 +562,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -568,6 +571,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -576,15 +591,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -908,21 +914,21 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B20" sqref="B20:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14" style="11" customWidth="1"/>
+    <col min="1" max="1" width="14" style="10" customWidth="1"/>
     <col min="2" max="2" width="31.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="99.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="93.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -934,12 +940,12 @@
       <c r="D1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="6" customFormat="1" ht="37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -951,12 +957,12 @@
       <c r="D2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="15" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="6" customFormat="1" ht="54.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -968,10 +974,10 @@
       <c r="D3" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" ht="107" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>87</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -983,13 +989,13 @@
       <c r="D4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="54.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -998,23 +1004,23 @@
       <c r="D5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:5" ht="89.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:5" ht="54.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>90</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1026,10 +1032,10 @@
       <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="13"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5" ht="89.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>91</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1041,10 +1047,10 @@
       <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>92</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1056,10 +1062,10 @@
       <c r="D9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" ht="52.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>93</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1071,10 +1077,10 @@
       <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:5" ht="54.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>94</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1086,10 +1092,10 @@
       <c r="D11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:5" ht="37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>95</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1099,10 +1105,10 @@
         <v>70</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="14"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:5" ht="37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>96</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1114,12 +1120,12 @@
       <c r="D13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>97</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1131,12 +1137,12 @@
       <c r="D14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="89.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>98</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1148,12 +1154,12 @@
       <c r="D15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>99</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1165,12 +1171,12 @@
       <c r="D16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>100</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1182,12 +1188,12 @@
       <c r="D17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="54.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>101</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1199,12 +1205,12 @@
       <c r="D18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="54.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>102</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1216,132 +1222,148 @@
       <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="C20" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="C21" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="C22" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="C23" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="C25" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="C26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="C27" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="37" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>111</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1349,6 +1371,12 @@
       </c>
       <c r="C28" s="3" t="s">
         <v>82</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
